--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2616.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2616.xlsx
@@ -354,7 +354,7 @@
         <v>1.580853885686141</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.790073279214563</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2616.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2616.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.784407089723248</v>
+        <v>1.288846492767334</v>
       </c>
       <c r="B1">
-        <v>1.580853885686141</v>
+        <v>2.179458141326904</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.702958106994629</v>
       </c>
       <c r="D1">
-        <v>1.790073279214563</v>
+        <v>3.221054315567017</v>
       </c>
       <c r="E1">
-        <v>0.9193556291757652</v>
+        <v>1.350842952728271</v>
       </c>
     </row>
   </sheetData>
